--- a/auto/data/1_中國大陸_進出口總值(美元).xlsx
+++ b/auto/data/1_中國大陸_進出口總值(美元).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K247"/>
+  <dimension ref="A1:K257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
@@ -526,7 +526,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
@@ -753,7 +753,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
@@ -792,7 +792,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
@@ -2266,7 +2266,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
@@ -3497,7 +3497,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr">
@@ -3701,7 +3701,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
@@ -4345,7 +4345,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr">
@@ -4989,7 +4989,7 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr">
@@ -5468,7 +5468,7 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr">
@@ -5507,7 +5507,7 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr">
@@ -5601,7 +5601,7 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr">
@@ -5640,7 +5640,7 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr">
@@ -6999,7 +6999,7 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="B130" t="inlineStr"/>
       <c r="C130" t="inlineStr">
@@ -7203,7 +7203,7 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="B134" t="inlineStr"/>
       <c r="C134" t="inlineStr">
@@ -7297,7 +7297,7 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="B136" t="inlineStr"/>
       <c r="C136" t="inlineStr">
@@ -7501,7 +7501,7 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="B140" t="inlineStr"/>
       <c r="C140" t="inlineStr">
@@ -7540,7 +7540,7 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="B141" t="inlineStr"/>
       <c r="C141" t="inlineStr">
@@ -8074,7 +8074,7 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="B151" t="inlineStr"/>
       <c r="C151" t="inlineStr">
@@ -8113,7 +8113,7 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="B152" t="inlineStr"/>
       <c r="C152" t="inlineStr">
@@ -8152,7 +8152,7 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="B153" t="inlineStr"/>
       <c r="C153" t="inlineStr">
@@ -8466,7 +8466,7 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="B159" t="inlineStr"/>
       <c r="C159" t="inlineStr">
@@ -8670,7 +8670,7 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="B163" t="inlineStr"/>
       <c r="C163" t="inlineStr">
@@ -8709,7 +8709,7 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="B164" t="inlineStr"/>
       <c r="C164" t="inlineStr">
@@ -9353,7 +9353,7 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="B176" t="inlineStr"/>
       <c r="C176" t="inlineStr">
@@ -10052,7 +10052,7 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="B189" t="inlineStr"/>
       <c r="C189" t="inlineStr">
@@ -13279,6 +13279,556 @@
         </is>
       </c>
     </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>進口總值(含復進口)</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>113年2月</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>可互換之搪孔或拉孔工具，工具機用</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>出口總值(含復出口)</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>可互換之搪孔或拉孔工具，工具機用</t>
+        </is>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>652</t>
+        </is>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>2024-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>進口總值(含復進口)</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>113年3月</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>可互換之搪孔或拉孔工具，工具機用</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>出口總值(含復出口)</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>可互換之搪孔或拉孔工具，工具機用</t>
+        </is>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>919</t>
+        </is>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>2024-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>進口總值(含復進口)</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>113年4月</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>可互換之搪孔或拉孔工具，工具機用</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>出口總值(含復出口)</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>可互換之搪孔或拉孔工具，工具機用</t>
+        </is>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>561</t>
+        </is>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>2024-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>進口總值(含復進口)</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>113年5月</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>可互換之搪孔或拉孔工具，工具機用</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>出口總值(含復出口)</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>可互換之搪孔或拉孔工具，工具機用</t>
+        </is>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>804</t>
+        </is>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>2024-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>進口總值(含復進口)</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>113年6月</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>可互換之搪孔或拉孔工具，工具機用</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>出口總值(含復出口)</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>可互換之搪孔或拉孔工具，工具機用</t>
+        </is>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>2024-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>進口總值(含復進口)</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>113年7月</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>可互換之搪孔或拉孔工具，工具機用</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>出口總值(含復出口)</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>可互換之搪孔或拉孔工具，工具機用</t>
+        </is>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>662</t>
+        </is>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>2024-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>進口總值(含復進口)</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>113年8月</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>可互換之搪孔或拉孔工具，工具機用</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>出口總值(含復出口)</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>可互換之搪孔或拉孔工具，工具機用</t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>748</t>
+        </is>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>2024-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>進口總值(含復進口)</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>113年9月</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>可互換之搪孔或拉孔工具，工具機用</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>出口總值(含復出口)</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>可互換之搪孔或拉孔工具，工具機用</t>
+        </is>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>進口總值(含復進口)</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>113年10月</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>可互換之搪孔或拉孔工具，工具機用</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>出口總值(含復出口)</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>可互換之搪孔或拉孔工具，工具機用</t>
+        </is>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>681</t>
+        </is>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>2024-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>進口總值(含復進口)</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>113年11月</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>可互換之搪孔或拉孔工具，工具機用</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>出口總值(含復出口)</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>可互換之搪孔或拉孔工具，工具機用</t>
+        </is>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>中國大陸</t>
+        </is>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>633</t>
+        </is>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>2024-11</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
